--- a/InputData/elec/DRC/Demand Response Capacity.xlsx
+++ b/InputData/elec/DRC/Demand Response Capacity.xlsx
@@ -1,29 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\DRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\eps-1.4.3-hk-wipB\eps-1.4.3-hk-wipB\InputData\elec\DRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="193" documentId="11_5BAACBD6CEA36AC080EC51E55DE1450C342AB8C5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{5B8D5BAA-D892-4AD4-879F-EDD45FF74568}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="23955" windowHeight="12270"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BAU DR Capacity" sheetId="4" r:id="rId2"/>
+    <sheet name="Peak Time Demand" sheetId="4" r:id="rId2"/>
     <sheet name="DRC-BDRC" sheetId="5" r:id="rId3"/>
     <sheet name="Calculations" sheetId="3" r:id="rId4"/>
     <sheet name="DRC-PADRC" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+  <si>
+    <t>DRC BAU Demand Response Capacity</t>
+  </si>
+  <si>
+    <t>DRC Potential Additional Demand Response Capacity</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
@@ -37,83 +52,122 @@
     <t>http://www.ferc.gov/legal/staff-reports/06-09-demand-response.pdf</t>
   </si>
   <si>
+    <t>Page 27</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>To estimate BAU DR Capacity, we compare the "No DR" and "BAU" scenarios.  The values for</t>
+  </si>
+  <si>
+    <t>2009 and 2019 are given in the text on page 27.  We interpolate and extrapolate to obtain values</t>
+  </si>
+  <si>
+    <t>for all years of the model run.</t>
+  </si>
+  <si>
+    <t>We use the "Achievable Participation" scenario as our case for estimating potential additional DR capacity.</t>
+  </si>
+  <si>
+    <t>(In this, we follow the Brattle group's DRIVE model, which produced the data in the cited report.)</t>
+  </si>
+  <si>
+    <t>Figure 1 and the text below it give the initial peak demand levels and growth rates for the "No DR" and</t>
+  </si>
+  <si>
+    <t>"Achievable Participation" scenarios.  The reduction in peak demand in each year that cannot be attributed</t>
+  </si>
+  <si>
+    <t>to the BAU DR is the contribution of the additional DR.  See the "Calculations" tab for details.</t>
+  </si>
+  <si>
+    <t>peak demand 2017</t>
+  </si>
+  <si>
+    <t>10696 MW</t>
+  </si>
+  <si>
+    <t>p.29</t>
+  </si>
+  <si>
+    <t>https://www.statistics.gov.hk/pub/B11000022017AN17B0100.pdf</t>
+  </si>
+  <si>
     <t>Year</t>
   </si>
   <si>
-    <t>We use the "Achievable Participation" scenario as our case for estimating potential additional DR capacity.</t>
-  </si>
-  <si>
-    <t>(In this, we follow the Brattle group's DRIVE model, which produced the data in the cited report.)</t>
+    <t>DR Capacity (MW)</t>
   </si>
   <si>
     <t>Potential Additional DR Capacity (MW)</t>
   </si>
   <si>
-    <t>Page 27</t>
-  </si>
-  <si>
-    <t>Figure 1 and the text below it give the initial peak demand levels and growth rates for the "No DR" and</t>
-  </si>
-  <si>
-    <t>Reduction in Peak Demand Under BAU Relative to a No-DR Case (GW)</t>
-  </si>
-  <si>
-    <t>DR Capacity (MW)</t>
-  </si>
-  <si>
-    <t>DRC BAU Demand Response Capacity</t>
-  </si>
-  <si>
-    <t>DRC Potential Additional Demand Response Capacity</t>
-  </si>
-  <si>
-    <t>2009 and 2019 are given in the text on page 27.  We interpolate and extrapolate to obtain values</t>
-  </si>
-  <si>
-    <t>for all years of the model run.</t>
-  </si>
-  <si>
-    <t>"Achievable Participation" scenarios.  The reduction in peak demand in each year that cannot be attributed</t>
-  </si>
-  <si>
-    <t>to the BAU DR is the contribution of the additional DR.  See the "Calculations" tab for details.</t>
-  </si>
-  <si>
-    <t>Achievable Participation, Reduction in Peak Demand, 2019 (GW)</t>
-  </si>
-  <si>
-    <t>BAU DR Reduction in Peak Demand, 2019 (GW)</t>
-  </si>
-  <si>
-    <t>Achievable-BAU Peak Demand Reduction (GW)</t>
-  </si>
-  <si>
-    <t>Additional Peak Demand Reduction per Year (start year = 2010) (GW)</t>
-  </si>
-  <si>
-    <t>Additional DR Potential by 2030 (GW)</t>
-  </si>
-  <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>To estimate BAU DR Capacity, we compare the source's "No DR" and "BAU" scenarios.  The values for</t>
-  </si>
-  <si>
-    <t>Demand response is defined as the potential to reduce or shift electricity usage during peak</t>
-  </si>
-  <si>
-    <t>periods in response to time-based rates or other financial incentives.</t>
-  </si>
-  <si>
-    <t>Notes:</t>
+    <t xml:space="preserve">"Achievable Participation" achieves a reduction of peak demand by 14%, phased linearly over the next 10 years. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For additional DRC, we follow the US example and assume the "achievable participation" scenario reductions are feasible in HK too. </t>
+  </si>
+  <si>
+    <t>HK currently has only experimental peak pricing schemes with very limited coverage. Thus, we assume the current demand response capacity to be 0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">due to lack of data availability, we scale from the US data. </t>
+  </si>
+  <si>
+    <t>HK:</t>
+  </si>
+  <si>
+    <t>Peak time electricity demand</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environmental Bureau of HK</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power and Gas Supplies</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.enb.gov.hk/en/about_us/powerandgas.html</t>
+  </si>
+  <si>
+    <t>Hong Kong Energy Statistics</t>
+  </si>
+  <si>
+    <t>p. 29</t>
+  </si>
+  <si>
+    <t>Peak Demand</t>
+  </si>
+  <si>
+    <t>There is no discernible trend of peak demand over the past 10 years.</t>
+  </si>
+  <si>
+    <t>average:</t>
+  </si>
+  <si>
+    <t>Thus we assume peak demand to stay constant at the average of the last 10 years.</t>
+  </si>
+  <si>
+    <t>Base reduction in 2018:</t>
+  </si>
+  <si>
+    <t>Reduction through "Achievable Participation" reached in 2028:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We assume the demand response remains constant at </t>
+  </si>
+  <si>
+    <t>below peak demand after 2028.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,13 +191,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -175,19 +250,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -204,6 +285,935 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Peak Time Demand'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Peak Demand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Peak Time Demand'!$A$5:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Peak Time Demand'!$B$5:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9859</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9925</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10068</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9962</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD6B-44D9-852F-F0AB2C2BEB34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="917779200"/>
+        <c:axId val="917774280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="917779200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917774280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="917774280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917779200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4594AE53-A2AC-4246-903C-7CC34551EFA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -282,6 +1292,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -317,6 +1344,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,224 +1536,403 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" s="2">
         <v>2009</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="16">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="17"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
+    <row r="33" spans="1:6">
+      <c r="A33" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="E39" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{0925DA4B-2CD6-4820-B8C0-523FA87F2014}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2007</v>
+      </c>
+      <c r="B5">
+        <v>10282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f>A5+1</f>
+        <v>2008</v>
+      </c>
+      <c r="B6">
+        <v>10788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" ref="A7:A15" si="0">A6+1</f>
         <v>2009</v>
       </c>
-      <c r="B2" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B7">
+        <v>10153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="B8">
+        <v>9859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="B9">
+        <v>10296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="B10">
+        <v>9925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="B11">
+        <v>10068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B12">
+        <v>9962</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="B13">
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="B14">
+        <v>9937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="B15">
+        <v>10696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE(B5:B15)</f>
+        <v>10179.545454545454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{06F875AA-B026-4946-ABB5-D4613E8F4D86}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD15" sqref="AD15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2015</v>
@@ -820,153 +2043,117 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,B1)*1000</f>
-        <v>37599.999999999993</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,C1)*1000</f>
-        <v>37700.000000000015</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,D1)*1000</f>
-        <v>37800.000000000015</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,E1)*1000</f>
-        <v>37900.000000000007</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,F1)*1000</f>
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,G1)*1000</f>
-        <v>38099.999999999993</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,H1)*1000</f>
-        <v>38200.000000000015</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,I1)*1000</f>
-        <v>38300.000000000015</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,J1)*1000</f>
-        <v>38400.000000000007</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,K1)*1000</f>
-        <v>38500</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,L1)*1000</f>
-        <v>38599.999999999993</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,M1)*1000</f>
-        <v>38700.000000000015</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,N1)*1000</f>
-        <v>38800.000000000015</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,O1)*1000</f>
-        <v>38900.000000000007</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,P1)*1000</f>
-        <v>39000</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,Q1)*1000</f>
-        <v>39099.999999999993</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,R1)*1000</f>
-        <v>39200.000000000015</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,S1)*1000</f>
-        <v>39300.000000000015</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,T1)*1000</f>
-        <v>39400.000000000007</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,U1)*1000</f>
-        <v>39500</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,V1)*1000</f>
-        <v>39599.999999999993</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,W1)*1000</f>
-        <v>39700.000000000015</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,X1)*1000</f>
-        <v>39800.000000000015</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,Y1)*1000</f>
-        <v>39900.000000000007</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,Z1)*1000</f>
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AA1)*1000</f>
-        <v>40099.999999999993</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AB1)*1000</f>
-        <v>40200.000000000015</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AC1)*1000</f>
-        <v>40300.000000000015</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AD1)*1000</f>
-        <v>40400.000000000007</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AE1)*1000</f>
-        <v>40500</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AF1)*1000</f>
-        <v>40599.999999999993</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AG1)*1000</f>
-        <v>40700.000000000015</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AH1)*1000</f>
-        <v>40800.000000000015</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AI1)*1000</f>
-        <v>40900.000000000007</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AJ1)*1000</f>
-        <v>41000</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <f>TREND('BAU DR Capacity'!$A3:$B3,'BAU DR Capacity'!$A2:$B2,AK1)*1000</f>
-        <v>41099.999999999993</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -975,74 +2162,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="92" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="59.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="14">
+    <row r="1" spans="1:4">
+      <c r="A1" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="15">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="14">
-        <f>B3-B2</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="15">
-        <f>B4/10</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="15">
-        <f>B5*15</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="13"/>
+      <c r="B1" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>2028</v>
+      </c>
+      <c r="C2">
+        <f>About!E39*'Peak Time Demand'!B17</f>
+        <v>1425.1363636363637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1051,24 +2214,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
+    <row r="1" spans="1:37">
+      <c r="A1" t="s">
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2015</v>
@@ -1179,152 +2342,140 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>7</v>
+    <row r="2" spans="1:37" ht="30">
+      <c r="A2" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>
       </c>
       <c r="C2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!C1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!D1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!E1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>30000</v>
+        <f t="array" ref="E2:O2">TREND(Calculations!C1:C2,Calculations!B1:B2,'DRC-PADRC'!E1:O1)</f>
+        <v>-5.8207660913467407E-11</v>
       </c>
       <c r="F2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!F1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>40000</v>
+        <v>142.51363636361202</v>
       </c>
       <c r="G2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!G1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>50000</v>
+        <v>285.02727272722404</v>
       </c>
       <c r="H2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!H1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>60000</v>
+        <v>427.54090909089427</v>
       </c>
       <c r="I2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!I1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>70000</v>
+        <v>570.0545454545063</v>
       </c>
       <c r="J2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!J1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>80000</v>
+        <v>712.56818181817653</v>
       </c>
       <c r="K2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!K1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>90000</v>
+        <v>855.08181818178855</v>
       </c>
       <c r="L2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!L1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>100000</v>
+        <v>997.59545454540057</v>
       </c>
       <c r="M2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!M1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>110000</v>
+        <v>1140.1090909090708</v>
       </c>
       <c r="N2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!N1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>120000</v>
+        <v>1282.6227272726828</v>
       </c>
       <c r="O2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!O1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>130000</v>
+        <v>1425.1363636363531</v>
       </c>
       <c r="P2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!P1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>140000</v>
+        <f>O2</f>
+        <v>1425.1363636363531</v>
       </c>
       <c r="Q2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!Q1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>150000</v>
+        <f t="shared" ref="Q2:AK2" si="0">P2</f>
+        <v>1425.1363636363531</v>
       </c>
       <c r="R2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!R1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>160000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
       <c r="S2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!S1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>170000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
       <c r="T2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!T1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>180000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
       <c r="U2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!U1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>190000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
       <c r="V2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!V1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>200000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
       <c r="W2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!W1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>210000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
       <c r="X2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!X1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>220000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
       <c r="Y2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!Y1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>230000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
       <c r="Z2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!Z1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>240000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
       <c r="AA2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!AA1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
       <c r="AB2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!AB1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>260000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
       <c r="AC2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!AC1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>270000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
       <c r="AD2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!AD1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>280000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
       <c r="AE2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!AE1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>290000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
       <c r="AF2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!AF1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>300000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
       <c r="AG2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!AG1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>310000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
       <c r="AH2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!AH1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>320000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
       <c r="AI2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!AI1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>330000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
       <c r="AJ2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!AJ1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>340000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
       <c r="AK2" s="10">
-        <f>Calculations!$B$5*('DRC-PADRC'!AK1-'DRC-PADRC'!$B$1)*1000</f>
-        <v>350000</v>
+        <f t="shared" si="0"/>
+        <v>1425.1363636363531</v>
       </c>
     </row>
   </sheetData>
@@ -1567,6 +2718,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1575,23 +2735,48 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F84B800B-6E6B-4B8E-B04C-ADB98D8A8119}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF6D1207-F3B1-4A1B-AE8B-9760AA51E859}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B8FE22D-D097-490F-8B46-23C92D6291BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9585EA1C-087F-42DC-B093-F3115CD108A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9345D16-6A6D-48C7-B459-1E19F8A635C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EE7E259-142E-40AF-A153-938990664F49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>